--- a/ZumoPi_V02/MCU/Pinout.xlsx
+++ b/ZumoPi_V02/MCU/Pinout.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="258">
   <si>
     <t>SAMD51</t>
   </si>
@@ -739,38 +739,144 @@
     <t>M1 Phase</t>
   </si>
   <si>
-    <t>M2 Phase</t>
-  </si>
-  <si>
-    <t>M1,M2 Enable</t>
-  </si>
-  <si>
     <t>!BST</t>
   </si>
   <si>
     <t>M1 PWM</t>
   </si>
   <si>
-    <t>M2 PWM</t>
-  </si>
-  <si>
-    <t>Led 1</t>
-  </si>
-  <si>
-    <t>Led 2</t>
-  </si>
-  <si>
     <t>!Alert Battery</t>
   </si>
   <si>
-    <t>!PFO / CLPROG</t>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <t>G10/HOST_VBUS</t>
+  </si>
+  <si>
+    <t>BOOT# (I - Open Drain)</t>
+  </si>
+  <si>
+    <t>G11/HOST_ID</t>
+  </si>
+  <si>
+    <t>Function STM32</t>
+  </si>
+  <si>
+    <t>CLPROG</t>
+  </si>
+  <si>
+    <t>Line MCU</t>
+  </si>
+  <si>
+    <t>Line MCU Interrupt</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Header jp_en</t>
+  </si>
+  <si>
+    <t>Header after mux</t>
+  </si>
+  <si>
+    <t>NFC1</t>
+  </si>
+  <si>
+    <t>NFC2</t>
+  </si>
+  <si>
+    <t>Not Connected</t>
+  </si>
+  <si>
+    <t>BATT_VIN / 3 (0 to 3.3V)</t>
+  </si>
+  <si>
+    <t>BOOT (Open Drain)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function nRF52840 </t>
+  </si>
+  <si>
+    <t>Uart Pi</t>
+  </si>
+  <si>
+    <t>I2c Pi</t>
+  </si>
+  <si>
+    <t>BNO_TX</t>
+  </si>
+  <si>
+    <t>BNO_RX</t>
+  </si>
+  <si>
+    <t>add jp</t>
+  </si>
+  <si>
+    <t>BNO_!RST!</t>
+  </si>
+  <si>
+    <t>BNO_!WAKE!</t>
+  </si>
+  <si>
+    <t>BNO_!INT!</t>
+  </si>
+  <si>
+    <t>Pi_!INT!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header </t>
+  </si>
+  <si>
+    <t>Pi_!INT! 2</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>VL0_CE</t>
+  </si>
+  <si>
+    <t>VL1_CE</t>
+  </si>
+  <si>
+    <t>M0,M1 Enable</t>
+  </si>
+  <si>
+    <t>M0 PWM</t>
+  </si>
+  <si>
+    <t>M0 Phase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,8 +938,34 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,7 +1040,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1152,12 +1290,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1165,24 +1297,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1205,19 +1319,133 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1500,16 +1728,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AR41"/>
+  <dimension ref="A1:BI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="46" max="46" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:44" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="40" t="s">
         <v>214</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -1533,7 +1766,10 @@
       <c r="I1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="K1" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>214</v>
       </c>
       <c r="O1" s="16" t="s">
@@ -1599,84 +1835,126 @@
       <c r="AO1" s="23" t="s">
         <v>82</v>
       </c>
+      <c r="AT1" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU1" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV1" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW1" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="AX1" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY1" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ1" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="2:44" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="35" t="s">
+    <row r="2" spans="1:61" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="44"/>
-      <c r="O2" s="32" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="36"/>
+      <c r="O2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="X2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="32" t="s">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="AB2" s="32" t="s">
+      <c r="AB2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="32" t="s">
+      <c r="AC2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="AE2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="35" t="s">
+      <c r="AF2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="37"/>
+      <c r="AG2" s="51"/>
       <c r="AI2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AJ2" s="30" t="s">
+      <c r="AJ2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="AK2" s="31"/>
+      <c r="AK2" s="44"/>
       <c r="AL2" s="24" t="s">
         <v>85</v>
       </c>
@@ -1689,80 +1967,128 @@
       <c r="AO2" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="AP2" s="30" t="s">
+      <c r="AP2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="AQ2" s="31"/>
+      <c r="AQ2" s="44"/>
       <c r="AR2" s="24" t="s">
         <v>83</v>
       </c>
+      <c r="AT2" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU2" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV2" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW2" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB2" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG2" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="51"/>
     </row>
-    <row r="3" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="33" t="s">
+    <row r="3" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="44"/>
-      <c r="O3" s="33" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="36"/>
+      <c r="O3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="U3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="33" t="s">
+      <c r="V3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="38" t="s">
+      <c r="X3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="33" t="s">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="33" t="s">
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="33" t="s">
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AF3" s="38" t="s">
+      <c r="AF3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
+      <c r="AG3" s="52"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AT3" s="80"/>
+      <c r="AU3" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="80"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="48"/>
+      <c r="BI3" s="52"/>
     </row>
-    <row r="4" spans="2:44" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -1779,7 +2105,7 @@
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="45"/>
+      <c r="M4" s="37"/>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="25" t="s">
@@ -1813,8 +2139,33 @@
       <c r="AN4" s="26">
         <v>75</v>
       </c>
+      <c r="AT4" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="65">
+        <v>75</v>
+      </c>
+      <c r="AW4" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB4" s="25"/>
+      <c r="BC4" s="25"/>
+      <c r="BD4" s="25"/>
+      <c r="BE4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF4" s="26">
+        <v>75</v>
+      </c>
+      <c r="BG4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH4" s="25"/>
+      <c r="BI4" s="25"/>
     </row>
-    <row r="5" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:61" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1835,10 +2186,12 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="M5" s="46"/>
+      <c r="M5" s="83" t="s">
+        <v>230</v>
+      </c>
       <c r="O5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1897,8 +2250,36 @@
       <c r="AR5" s="26">
         <v>32</v>
       </c>
+      <c r="AT5" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU5" s="68">
+        <v>74</v>
+      </c>
+      <c r="AV5" s="68">
+        <v>73</v>
+      </c>
+      <c r="AW5" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE5" s="24">
+        <v>74</v>
+      </c>
+      <c r="BF5" s="24">
+        <v>73</v>
+      </c>
+      <c r="BG5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>158</v>
       </c>
@@ -1919,10 +2300,9 @@
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="M6" s="45"/>
+      <c r="L6" s="41" t="s">
+        <v>221</v>
+      </c>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="3" t="s">
@@ -1979,8 +2359,37 @@
       <c r="AR6" s="24">
         <v>33</v>
       </c>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="65">
+        <v>72</v>
+      </c>
+      <c r="AV6" s="65">
+        <v>71</v>
+      </c>
+      <c r="AW6" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB6" s="25"/>
+      <c r="BC6" s="25"/>
+      <c r="BD6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="BE6" s="26">
+        <v>72</v>
+      </c>
+      <c r="BF6" s="26">
+        <v>71</v>
+      </c>
+      <c r="BG6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH6" s="25"/>
+      <c r="BI6" s="25"/>
     </row>
-    <row r="7" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="82" t="s">
+        <v>233</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="7" t="s">
@@ -2000,11 +2409,9 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="O7" s="1"/>
+      <c r="L7" s="41" t="s">
+        <v>223</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
         <v>16</v>
@@ -2062,8 +2469,37 @@
       <c r="AR7" s="26">
         <v>19</v>
       </c>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="68">
+        <v>70</v>
+      </c>
+      <c r="AV7" s="68">
+        <v>69</v>
+      </c>
+      <c r="AW7" s="70"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE7" s="24">
+        <v>70</v>
+      </c>
+      <c r="BF7" s="24">
+        <v>69</v>
+      </c>
+      <c r="BG7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
     </row>
-    <row r="8" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="82" t="s">
+        <v>233</v>
+      </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -2081,10 +2517,12 @@
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M8" s="45"/>
+      <c r="L8" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>249</v>
+      </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="25" t="s">
@@ -2141,8 +2579,35 @@
       <c r="AR8" s="24">
         <v>23</v>
       </c>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="65">
+        <v>68</v>
+      </c>
+      <c r="AV8" s="65">
+        <v>67</v>
+      </c>
+      <c r="AW8" s="64"/>
+      <c r="BB8" s="25"/>
+      <c r="BC8" s="25"/>
+      <c r="BD8" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE8" s="26">
+        <v>68</v>
+      </c>
+      <c r="BF8" s="26">
+        <v>67</v>
+      </c>
+      <c r="BG8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH8" s="25"/>
+      <c r="BI8" s="25"/>
     </row>
-    <row r="9" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="82" t="s">
+        <v>233</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2164,8 +2629,15 @@
       <c r="K9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="46"/>
+      <c r="L9" s="82" t="s">
+        <v>250</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="N9" t="s">
+        <v>252</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
@@ -2224,8 +2696,37 @@
       <c r="AR9" s="26">
         <v>18</v>
       </c>
+      <c r="AT9" s="70"/>
+      <c r="AU9" s="68">
+        <v>66</v>
+      </c>
+      <c r="AV9" s="68">
+        <v>65</v>
+      </c>
+      <c r="AW9" s="70"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE9" s="24">
+        <v>66</v>
+      </c>
+      <c r="BF9" s="24">
+        <v>65</v>
+      </c>
+      <c r="BG9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BI9" s="1"/>
     </row>
-    <row r="10" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:61" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="82" t="s">
+        <v>233</v>
+      </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="7" t="s">
@@ -2249,8 +2750,15 @@
       <c r="K10" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="45"/>
+      <c r="L10" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="N10" t="s">
+        <v>252</v>
+      </c>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="25" t="s">
@@ -2317,8 +2825,41 @@
       <c r="AR10" s="24">
         <v>5</v>
       </c>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="65">
+        <v>64</v>
+      </c>
+      <c r="AV10" s="65">
+        <v>63</v>
+      </c>
+      <c r="AW10" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="BB10" s="25"/>
+      <c r="BC10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE10" s="26">
+        <v>64</v>
+      </c>
+      <c r="BF10" s="26">
+        <v>63</v>
+      </c>
+      <c r="BG10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH10" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI10" s="25"/>
     </row>
-    <row r="11" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="82" t="s">
+        <v>233</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="7" t="s">
@@ -2338,8 +2879,9 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="46"/>
+      <c r="L11" s="83" t="s">
+        <v>230</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
@@ -2414,8 +2956,39 @@
       <c r="AR11" s="26">
         <v>25</v>
       </c>
+      <c r="AT11" s="70"/>
+      <c r="AU11" s="68">
+        <v>62</v>
+      </c>
+      <c r="AV11" s="68">
+        <v>61</v>
+      </c>
+      <c r="AW11" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE11" s="24">
+        <v>62</v>
+      </c>
+      <c r="BF11" s="24">
+        <v>61</v>
+      </c>
+      <c r="BG11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="82" t="s">
+        <v>233</v>
+      </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="7" t="s">
@@ -2437,8 +3010,9 @@
         <v>176</v>
       </c>
       <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="45"/>
+      <c r="L12" s="83" t="s">
+        <v>230</v>
+      </c>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
       <c r="Q12" s="25" t="s">
@@ -2513,8 +3087,42 @@
       <c r="AR12" s="24">
         <v>26</v>
       </c>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="65">
+        <v>60</v>
+      </c>
+      <c r="AV12" s="65">
+        <v>59</v>
+      </c>
+      <c r="AW12" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB12" s="25"/>
+      <c r="BC12" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE12" s="26">
+        <v>60</v>
+      </c>
+      <c r="BF12" s="26">
+        <v>59</v>
+      </c>
+      <c r="BG12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH12" s="25"/>
+      <c r="BI12" s="25"/>
     </row>
-    <row r="13" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>253</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2534,8 +3142,9 @@
         <v>179</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="46"/>
+      <c r="L13" s="83" t="s">
+        <v>230</v>
+      </c>
       <c r="O13" s="1">
         <v>43</v>
       </c>
@@ -2608,8 +3217,40 @@
       <c r="AR13" s="26">
         <v>39</v>
       </c>
+      <c r="AT13" s="70"/>
+      <c r="AU13" s="68">
+        <v>58</v>
+      </c>
+      <c r="AV13" s="68">
+        <v>57</v>
+      </c>
+      <c r="AW13" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BE13" s="24">
+        <v>58</v>
+      </c>
+      <c r="BF13" s="24">
+        <v>57</v>
+      </c>
+      <c r="BG13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>254</v>
+      </c>
       <c r="C14" s="25" t="s">
         <v>180</v>
       </c>
@@ -2633,8 +3274,9 @@
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="45"/>
+      <c r="L14" s="83" t="s">
+        <v>230</v>
+      </c>
       <c r="O14" s="25">
         <v>40</v>
       </c>
@@ -2707,8 +3349,42 @@
       <c r="AR14" s="24">
         <v>12</v>
       </c>
+      <c r="AT14" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU14" s="65">
+        <v>56</v>
+      </c>
+      <c r="AV14" s="65">
+        <v>55</v>
+      </c>
+      <c r="AW14" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB14" s="25"/>
+      <c r="BC14" s="25"/>
+      <c r="BD14" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="BE14" s="26">
+        <v>56</v>
+      </c>
+      <c r="BF14" s="26">
+        <v>55</v>
+      </c>
+      <c r="BG14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="25"/>
     </row>
-    <row r="15" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>248</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>183</v>
       </c>
@@ -2732,8 +3408,12 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="46"/>
+      <c r="L15" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>242</v>
+      </c>
       <c r="O15" s="1">
         <v>41</v>
       </c>
@@ -2798,8 +3478,42 @@
       <c r="AP15" s="25"/>
       <c r="AQ15" s="25"/>
       <c r="AR15" s="25"/>
+      <c r="AT15" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU15" s="68">
+        <v>54</v>
+      </c>
+      <c r="AV15" s="68">
+        <v>53</v>
+      </c>
+      <c r="AW15" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BE15" s="24">
+        <v>54</v>
+      </c>
+      <c r="BF15" s="24">
+        <v>53</v>
+      </c>
+      <c r="BG15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>246</v>
+      </c>
       <c r="C16" s="8" t="s">
         <v>187</v>
       </c>
@@ -2823,8 +3537,12 @@
       </c>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="45"/>
+      <c r="L16" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="M16" s="41" t="s">
+        <v>242</v>
+      </c>
       <c r="O16" s="25">
         <v>44</v>
       </c>
@@ -2889,8 +3607,42 @@
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
+      <c r="AT16" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU16" s="65">
+        <v>52</v>
+      </c>
+      <c r="AV16" s="65">
+        <v>51</v>
+      </c>
+      <c r="AW16" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="25"/>
+      <c r="BD16" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE16" s="26">
+        <v>52</v>
+      </c>
+      <c r="BF16" s="26">
+        <v>51</v>
+      </c>
+      <c r="BG16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="25"/>
     </row>
-    <row r="17" spans="2:44" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:61" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>247</v>
+      </c>
       <c r="C17" s="8" t="s">
         <v>191</v>
       </c>
@@ -2917,7 +3669,7 @@
       <c r="L17" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M17" s="46"/>
+      <c r="M17" s="38"/>
       <c r="O17" s="1">
         <v>42</v>
       </c>
@@ -2980,10 +3732,38 @@
       <c r="AP17" s="25"/>
       <c r="AQ17" s="25"/>
       <c r="AR17" s="25"/>
+      <c r="AT17" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU17" s="68">
+        <v>50</v>
+      </c>
+      <c r="AV17" s="68">
+        <v>49</v>
+      </c>
+      <c r="AW17" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="BE17" s="24">
+        <v>50</v>
+      </c>
+      <c r="BF17" s="24">
+        <v>49</v>
+      </c>
+      <c r="BG17" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
     </row>
-    <row r="18" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="52" t="s">
-        <v>222</v>
+    <row r="18" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="41" t="s">
+        <v>255</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3002,10 +3782,10 @@
       </c>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="M18" s="45"/>
+      <c r="L18" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="M18" s="37"/>
       <c r="O18" s="25" t="s">
         <v>37</v>
       </c>
@@ -3074,9 +3854,37 @@
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
+      <c r="AT18" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU18" s="65">
+        <v>48</v>
+      </c>
+      <c r="AV18" s="65">
+        <v>47</v>
+      </c>
+      <c r="AW18" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB18" s="25"/>
+      <c r="BC18" s="25"/>
+      <c r="BD18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE18" s="26">
+        <v>48</v>
+      </c>
+      <c r="BF18" s="26">
+        <v>47</v>
+      </c>
+      <c r="BG18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BH18" s="25"/>
+      <c r="BI18" s="25"/>
     </row>
-    <row r="19" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="52" t="s">
+    <row r="19" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="41" t="s">
         <v>216</v>
       </c>
       <c r="C19" s="1"/>
@@ -3097,7 +3905,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="46"/>
+      <c r="M19" s="38"/>
       <c r="O19" s="1" t="s">
         <v>41</v>
       </c>
@@ -3152,9 +3960,37 @@
       <c r="AP19" s="26"/>
       <c r="AQ19" s="25"/>
       <c r="AR19" s="25"/>
+      <c r="AT19" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU19" s="68">
+        <v>46</v>
+      </c>
+      <c r="AV19" s="68">
+        <v>45</v>
+      </c>
+      <c r="AW19" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE19" s="24">
+        <v>46</v>
+      </c>
+      <c r="BF19" s="24">
+        <v>45</v>
+      </c>
+      <c r="BG19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
     </row>
-    <row r="20" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="52" t="s">
+    <row r="20" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="41" t="s">
         <v>219</v>
       </c>
       <c r="C20" s="25"/>
@@ -3174,8 +4010,10 @@
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="45"/>
+      <c r="L20" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="M20" s="37"/>
       <c r="O20" s="25" t="s">
         <v>43</v>
       </c>
@@ -3232,9 +4070,37 @@
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
+      <c r="AT20" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU20" s="65">
+        <v>44</v>
+      </c>
+      <c r="AV20" s="65">
+        <v>43</v>
+      </c>
+      <c r="AW20" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB20" s="25"/>
+      <c r="BC20" s="25"/>
+      <c r="BD20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE20" s="26">
+        <v>44</v>
+      </c>
+      <c r="BF20" s="26">
+        <v>43</v>
+      </c>
+      <c r="BG20" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH20" s="25"/>
+      <c r="BI20" s="25"/>
     </row>
-    <row r="21" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="52" t="s">
+    <row r="21" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="41" t="s">
         <v>218</v>
       </c>
       <c r="C21" s="1"/>
@@ -3254,8 +4120,10 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="46"/>
+      <c r="L21" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="M21" s="38"/>
       <c r="O21" s="1" t="s">
         <v>46</v>
       </c>
@@ -3316,9 +4184,37 @@
       <c r="AP21" s="25"/>
       <c r="AQ21" s="25"/>
       <c r="AR21" s="25"/>
+      <c r="AT21" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU21" s="68">
+        <v>42</v>
+      </c>
+      <c r="AV21" s="68">
+        <v>41</v>
+      </c>
+      <c r="AW21" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE21" s="24">
+        <v>42</v>
+      </c>
+      <c r="BF21" s="24">
+        <v>41</v>
+      </c>
+      <c r="BG21" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
     </row>
-    <row r="22" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="52" t="s">
+    <row r="22" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="41" t="s">
         <v>217</v>
       </c>
       <c r="C22" s="25"/>
@@ -3339,7 +4235,7 @@
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
-      <c r="M22" s="45"/>
+      <c r="M22" s="37"/>
       <c r="O22" s="25" t="s">
         <v>49</v>
       </c>
@@ -3398,9 +4294,37 @@
       <c r="AR22" s="24">
         <v>16</v>
       </c>
+      <c r="AT22" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU22" s="65">
+        <v>40</v>
+      </c>
+      <c r="AV22" s="65">
+        <v>39</v>
+      </c>
+      <c r="AW22" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="25"/>
+      <c r="BD22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE22" s="26">
+        <v>40</v>
+      </c>
+      <c r="BF22" s="26">
+        <v>39</v>
+      </c>
+      <c r="BG22" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH22" s="25"/>
+      <c r="BI22" s="25"/>
     </row>
-    <row r="23" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="53" t="s">
+    <row r="23" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="42" t="s">
         <v>229</v>
       </c>
       <c r="C23" s="1"/>
@@ -3421,7 +4345,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="46"/>
+      <c r="M23" s="38"/>
       <c r="O23" s="1">
         <v>18</v>
       </c>
@@ -3488,8 +4412,36 @@
       <c r="AR23" s="26">
         <v>17</v>
       </c>
+      <c r="AT23" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU23" s="68">
+        <v>38</v>
+      </c>
+      <c r="AV23" s="68">
+        <v>37</v>
+      </c>
+      <c r="AW23" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE23" s="24">
+        <v>38</v>
+      </c>
+      <c r="BF23" s="24">
+        <v>37</v>
+      </c>
+      <c r="BG23" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
     </row>
-    <row r="24" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -3508,7 +4460,7 @@
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="45"/>
+      <c r="M24" s="37"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
       <c r="Q24" s="28" t="s">
@@ -3559,8 +4511,39 @@
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
+      <c r="AT24" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU24" s="65">
+        <v>36</v>
+      </c>
+      <c r="AV24" s="65">
+        <v>35</v>
+      </c>
+      <c r="AW24" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="BB24" s="25"/>
+      <c r="BC24" s="25"/>
+      <c r="BD24" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE24" s="26">
+        <v>36</v>
+      </c>
+      <c r="BF24" s="26">
+        <v>35</v>
+      </c>
+      <c r="BG24" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH24" s="25"/>
+      <c r="BI24" s="25"/>
     </row>
-    <row r="25" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:61" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="82" t="s">
+        <v>232</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3579,7 +4562,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="46"/>
+      <c r="M25" s="38"/>
       <c r="O25" s="1">
         <v>17</v>
       </c>
@@ -3636,10 +4619,38 @@
       <c r="AP25" s="25"/>
       <c r="AQ25" s="25"/>
       <c r="AR25" s="25"/>
+      <c r="AT25" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU25" s="68">
+        <v>34</v>
+      </c>
+      <c r="AV25" s="68">
+        <v>33</v>
+      </c>
+      <c r="AW25" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE25" s="24">
+        <v>34</v>
+      </c>
+      <c r="BF25" s="24">
+        <v>33</v>
+      </c>
+      <c r="BG25" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
     </row>
-    <row r="26" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="52" t="s">
-        <v>224</v>
+    <row r="26" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="41" t="s">
+        <v>256</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3659,7 +4670,7 @@
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
-      <c r="M26" s="45"/>
+      <c r="M26" s="37"/>
       <c r="O26" s="25">
         <v>19</v>
       </c>
@@ -3720,8 +4731,36 @@
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
+      <c r="AT26" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU26" s="65">
+        <v>32</v>
+      </c>
+      <c r="AV26" s="65">
+        <v>31</v>
+      </c>
+      <c r="AW26" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB26" s="25"/>
+      <c r="BC26" s="25"/>
+      <c r="BD26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE26" s="26">
+        <v>32</v>
+      </c>
+      <c r="BF26" s="26">
+        <v>31</v>
+      </c>
+      <c r="BG26" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH26" s="25"/>
+      <c r="BI26" s="25"/>
     </row>
-    <row r="27" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3740,7 +4779,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="46"/>
+      <c r="M27" s="38"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1" t="s">
@@ -3795,8 +4834,36 @@
       <c r="AP27" s="25"/>
       <c r="AQ27" s="25"/>
       <c r="AR27" s="25"/>
+      <c r="AT27" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU27" s="68">
+        <v>30</v>
+      </c>
+      <c r="AV27" s="68">
+        <v>29</v>
+      </c>
+      <c r="AW27" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE27" s="24">
+        <v>30</v>
+      </c>
+      <c r="BF27" s="24">
+        <v>29</v>
+      </c>
+      <c r="BG27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
     </row>
-    <row r="28" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -3815,7 +4882,7 @@
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
-      <c r="M28" s="45"/>
+      <c r="M28" s="37"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="25" t="s">
@@ -3864,8 +4931,36 @@
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
+      <c r="AT28" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU28" s="65">
+        <v>28</v>
+      </c>
+      <c r="AV28" s="65">
+        <v>27</v>
+      </c>
+      <c r="AW28" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB28" s="25"/>
+      <c r="BC28" s="25"/>
+      <c r="BD28" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE28" s="26">
+        <v>28</v>
+      </c>
+      <c r="BF28" s="26">
+        <v>27</v>
+      </c>
+      <c r="BG28" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH28" s="25"/>
+      <c r="BI28" s="25"/>
     </row>
-    <row r="29" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3884,7 +4979,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="46"/>
+      <c r="M29" s="38"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1" t="s">
@@ -3937,8 +5032,36 @@
       <c r="AP29" s="25"/>
       <c r="AQ29" s="25"/>
       <c r="AR29" s="25"/>
+      <c r="AT29" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU29" s="68">
+        <v>26</v>
+      </c>
+      <c r="AV29" s="68">
+        <v>25</v>
+      </c>
+      <c r="AW29" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE29" s="24">
+        <v>26</v>
+      </c>
+      <c r="BF29" s="24">
+        <v>25</v>
+      </c>
+      <c r="BG29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
     </row>
-    <row r="30" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -3959,7 +5082,7 @@
       <c r="L30" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="M30" s="45"/>
+      <c r="M30" s="37"/>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
       <c r="Q30" s="25" t="s">
@@ -4008,8 +5131,39 @@
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
+      <c r="AT30" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU30" s="65">
+        <v>24</v>
+      </c>
+      <c r="AV30" s="65">
+        <v>23</v>
+      </c>
+      <c r="AW30" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB30" s="25"/>
+      <c r="BC30" s="25"/>
+      <c r="BD30" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE30" s="26">
+        <v>24</v>
+      </c>
+      <c r="BF30" s="26">
+        <v>23</v>
+      </c>
+      <c r="BG30" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH30" s="25"/>
+      <c r="BI30" s="25"/>
     </row>
-    <row r="31" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="41" t="s">
+        <v>243</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4030,7 +5184,7 @@
       <c r="L31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M31" s="46"/>
+      <c r="M31" s="38"/>
       <c r="O31" s="1">
         <v>36</v>
       </c>
@@ -4091,9 +5245,38 @@
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
       <c r="AR31" s="29"/>
+      <c r="AT31" s="70"/>
+      <c r="AU31" s="68">
+        <v>22</v>
+      </c>
+      <c r="AV31" s="68">
+        <v>21</v>
+      </c>
+      <c r="AW31" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE31" s="24">
+        <v>22</v>
+      </c>
+      <c r="BF31" s="24">
+        <v>21</v>
+      </c>
+      <c r="BG31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
     </row>
-    <row r="32" spans="2:44" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="25"/>
+    <row r="32" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="10" t="s">
@@ -4110,8 +5293,12 @@
       </c>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="45"/>
+      <c r="L32" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" s="41" t="s">
+        <v>241</v>
+      </c>
       <c r="O32" s="25">
         <v>37</v>
       </c>
@@ -4160,10 +5347,36 @@
       </c>
       <c r="AF32" s="25"/>
       <c r="AG32" s="25"/>
+      <c r="AT32" s="64"/>
+      <c r="AU32" s="65">
+        <v>20</v>
+      </c>
+      <c r="AV32" s="65">
+        <v>19</v>
+      </c>
+      <c r="AW32" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB32" s="25"/>
+      <c r="BC32" s="25"/>
+      <c r="BD32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE32" s="26">
+        <v>20</v>
+      </c>
+      <c r="BF32" s="26">
+        <v>19</v>
+      </c>
+      <c r="BG32" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH32" s="25"/>
+      <c r="BI32" s="25"/>
     </row>
-    <row r="33" spans="2:33" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="52" t="s">
-        <v>221</v>
+    <row r="33" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="41" t="s">
+        <v>220</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4184,8 +5397,12 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="46"/>
+      <c r="L33" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="M33" s="41" t="s">
+        <v>241</v>
+      </c>
       <c r="O33" s="1" t="s">
         <v>62</v>
       </c>
@@ -4228,10 +5445,38 @@
       </c>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
+      <c r="AT33" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU33" s="68">
+        <v>18</v>
+      </c>
+      <c r="AV33" s="68">
+        <v>17</v>
+      </c>
+      <c r="AW33" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE33" s="24">
+        <v>18</v>
+      </c>
+      <c r="BF33" s="24">
+        <v>17</v>
+      </c>
+      <c r="BG33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
     </row>
-    <row r="34" spans="2:33" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="52" t="s">
-        <v>228</v>
+    <row r="34" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="83" t="s">
+        <v>231</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4251,7 +5496,7 @@
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
-      <c r="M34" s="45"/>
+      <c r="M34" s="37"/>
       <c r="O34" s="25" t="s">
         <v>64</v>
       </c>
@@ -4296,8 +5541,37 @@
         <v>95</v>
       </c>
       <c r="AG34" s="25"/>
+      <c r="AT34" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU34" s="65">
+        <v>16</v>
+      </c>
+      <c r="AV34" s="65">
+        <v>15</v>
+      </c>
+      <c r="AW34" s="64"/>
+      <c r="BB34" s="25"/>
+      <c r="BC34" s="25"/>
+      <c r="BD34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE34" s="26">
+        <v>16</v>
+      </c>
+      <c r="BF34" s="26">
+        <v>15</v>
+      </c>
+      <c r="BG34" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH34" s="25"/>
+      <c r="BI34" s="25"/>
     </row>
-    <row r="35" spans="2:33" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="83" t="s">
+        <v>230</v>
+      </c>
       <c r="B35" s="9" t="s">
         <v>208</v>
       </c>
@@ -4319,7 +5593,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="46"/>
+      <c r="M35" s="38"/>
       <c r="O35" s="1">
         <v>34</v>
       </c>
@@ -4362,8 +5636,37 @@
         <v>97</v>
       </c>
       <c r="AG35" s="1"/>
+      <c r="AT35" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU35" s="68">
+        <v>14</v>
+      </c>
+      <c r="AV35" s="68">
+        <v>13</v>
+      </c>
+      <c r="AW35" s="70"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE35" s="24">
+        <v>14</v>
+      </c>
+      <c r="BF35" s="24">
+        <v>13</v>
+      </c>
+      <c r="BG35" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
     </row>
-    <row r="36" spans="2:33" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="83" t="s">
+        <v>230</v>
+      </c>
       <c r="B36" s="9" t="s">
         <v>210</v>
       </c>
@@ -4384,10 +5687,12 @@
       </c>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
-      <c r="L36" s="25" t="s">
+      <c r="L36" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="M36" s="45"/>
+      <c r="M36" s="82" t="s">
+        <v>232</v>
+      </c>
       <c r="O36" s="25">
         <v>35</v>
       </c>
@@ -4426,10 +5731,38 @@
       </c>
       <c r="AF36" s="25"/>
       <c r="AG36" s="25"/>
+      <c r="AT36" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU36" s="65">
+        <v>12</v>
+      </c>
+      <c r="AV36" s="65">
+        <v>11</v>
+      </c>
+      <c r="AW36" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="BB36" s="25"/>
+      <c r="BC36" s="25"/>
+      <c r="BD36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE36" s="26">
+        <v>12</v>
+      </c>
+      <c r="BF36" s="26">
+        <v>11</v>
+      </c>
+      <c r="BG36" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="BH36" s="25"/>
+      <c r="BI36" s="25"/>
     </row>
-    <row r="37" spans="2:33" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="52" t="s">
-        <v>220</v>
+    <row r="37" spans="1:61" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4451,7 +5784,7 @@
       <c r="L37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M37" s="46"/>
+      <c r="M37" s="38"/>
       <c r="O37" s="1" t="s">
         <v>68</v>
       </c>
@@ -4490,8 +5823,34 @@
       </c>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
+      <c r="AT37" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU37" s="68">
+        <v>10</v>
+      </c>
+      <c r="AV37" s="68">
+        <v>9</v>
+      </c>
+      <c r="AW37" s="70"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE37" s="24">
+        <v>10</v>
+      </c>
+      <c r="BF37" s="24">
+        <v>9</v>
+      </c>
+      <c r="BG37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
     </row>
-    <row r="38" spans="2:33" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="25" t="s">
         <v>212</v>
       </c>
@@ -4515,7 +5874,7 @@
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
-      <c r="M38" s="45"/>
+      <c r="M38" s="37"/>
       <c r="O38" s="25">
         <v>29</v>
       </c>
@@ -4552,9 +5911,38 @@
       </c>
       <c r="AF38" s="25"/>
       <c r="AG38" s="25"/>
+      <c r="AT38" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU38" s="65">
+        <v>8</v>
+      </c>
+      <c r="AV38" s="65">
+        <v>7</v>
+      </c>
+      <c r="AW38" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB38" s="25"/>
+      <c r="BC38" s="25"/>
+      <c r="BD38" s="25"/>
+      <c r="BE38" s="26">
+        <v>8</v>
+      </c>
+      <c r="BF38" s="26">
+        <v>7</v>
+      </c>
+      <c r="BG38" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH38" s="25"/>
+      <c r="BI38" s="25"/>
     </row>
-    <row r="39" spans="2:33" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="82" t="s">
         <v>213</v>
       </c>
       <c r="C39" s="1"/>
@@ -4577,7 +5965,9 @@
       <c r="L39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M39" s="46"/>
+      <c r="M39" s="82" t="s">
+        <v>234</v>
+      </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1" t="s">
@@ -4616,8 +6006,36 @@
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
+      <c r="AT39" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU39" s="68">
+        <v>6</v>
+      </c>
+      <c r="AV39" s="68">
+        <v>5</v>
+      </c>
+      <c r="AW39" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE39" s="24">
+        <v>6</v>
+      </c>
+      <c r="BF39" s="24">
+        <v>5</v>
+      </c>
+      <c r="BG39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
     </row>
-    <row r="40" spans="2:33" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3" t="s">
         <v>73</v>
       </c>
@@ -4641,7 +6059,9 @@
       <c r="L40" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M40" s="45"/>
+      <c r="M40" s="82" t="s">
+        <v>234</v>
+      </c>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
       <c r="Q40" s="3" t="s">
@@ -4680,8 +6100,34 @@
       </c>
       <c r="AF40" s="25"/>
       <c r="AG40" s="25"/>
+      <c r="AT40" s="64"/>
+      <c r="AU40" s="65">
+        <v>4</v>
+      </c>
+      <c r="AV40" s="65">
+        <v>3</v>
+      </c>
+      <c r="AW40" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB40" s="25"/>
+      <c r="BC40" s="25"/>
+      <c r="BD40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE40" s="26">
+        <v>4</v>
+      </c>
+      <c r="BF40" s="26">
+        <v>3</v>
+      </c>
+      <c r="BG40" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH40" s="25"/>
+      <c r="BI40" s="25"/>
     </row>
-    <row r="41" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>13</v>
       </c>
@@ -4701,9 +6147,9 @@
         <v>8</v>
       </c>
       <c r="J41" s="13"/>
-      <c r="K41" s="34"/>
+      <c r="K41" s="32"/>
       <c r="L41" s="29"/>
-      <c r="M41" s="47"/>
+      <c r="M41" s="39"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="4" t="s">
@@ -4736,11 +6182,44 @@
       <c r="AE41" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AF41" s="34"/>
+      <c r="AF41" s="32"/>
       <c r="AG41" s="29"/>
+      <c r="AT41" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU41" s="77">
+        <v>2</v>
+      </c>
+      <c r="AV41" s="77">
+        <v>1</v>
+      </c>
+      <c r="AW41" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE41" s="5">
+        <v>2</v>
+      </c>
+      <c r="BF41" s="5">
+        <v>1</v>
+      </c>
+      <c r="BG41" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH41" s="32"/>
+      <c r="BI41" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="C2:F3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="BB2:BD3"/>
+    <mergeCell ref="BG2:BI3"/>
     <mergeCell ref="AJ2:AK2"/>
     <mergeCell ref="AP2:AQ2"/>
     <mergeCell ref="I2:K3"/>
@@ -4751,7 +6230,6 @@
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="C2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ZumoPi_V02/MCU/Pinout.xlsx
+++ b/ZumoPi_V02/MCU/Pinout.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="258">
   <si>
     <t>SAMD51</t>
   </si>
@@ -721,9 +721,6 @@
     <t>My Functionality</t>
   </si>
   <si>
-    <t>2V8_EN</t>
-  </si>
-  <si>
     <t>ENC2_1</t>
   </si>
   <si>
@@ -848,9 +845,6 @@
     <t>Pi_!INT!</t>
   </si>
   <si>
-    <t xml:space="preserve">Header </t>
-  </si>
-  <si>
     <t>Pi_!INT! 2</t>
   </si>
   <si>
@@ -870,6 +864,12 @@
   </si>
   <si>
     <t>M0 Phase</t>
+  </si>
+  <si>
+    <t>3V3P_EN</t>
+  </si>
+  <si>
+    <t>Vin Stat</t>
   </si>
 </sst>
 </file>
@@ -1325,127 +1325,127 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1766,8 +1766,8 @@
       <c r="I1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="81" t="s">
-        <v>232</v>
+      <c r="K1" s="67" t="s">
+        <v>231</v>
       </c>
       <c r="L1" s="40" t="s">
         <v>214</v>
@@ -1835,25 +1835,25 @@
       <c r="AO1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AT1" s="55" t="s">
+      <c r="AT1" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="AU1" s="56" t="s">
+      <c r="AU1" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="AV1" s="57" t="s">
+      <c r="AV1" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="AW1" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="AX1" s="59" t="s">
+      <c r="AW1" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="AX1" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="AY1" s="60" t="s">
+      <c r="AY1" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="AZ1" s="61" t="s">
+      <c r="AZ1" s="49" t="s">
         <v>82</v>
       </c>
       <c r="BB1" s="16" t="s">
@@ -1879,24 +1879,24 @@
       </c>
     </row>
     <row r="2" spans="1:61" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="51"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="49"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="80"/>
       <c r="M2" s="36"/>
       <c r="O2" s="30" t="s">
         <v>0</v>
@@ -1922,14 +1922,14 @@
       <c r="V2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="45" t="s">
+      <c r="X2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="51"/>
+      <c r="Y2" s="72"/>
       <c r="Z2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="82" t="s">
         <v>107</v>
       </c>
       <c r="AB2" s="30" t="s">
@@ -1938,23 +1938,23 @@
       <c r="AC2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="53" t="s">
+      <c r="AD2" s="82" t="s">
         <v>107</v>
       </c>
       <c r="AE2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="45" t="s">
+      <c r="AF2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="51"/>
+      <c r="AG2" s="72"/>
       <c r="AI2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AJ2" s="43" t="s">
+      <c r="AJ2" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="AK2" s="44"/>
+      <c r="AK2" s="79"/>
       <c r="AL2" s="24" t="s">
         <v>85</v>
       </c>
@@ -1967,57 +1967,57 @@
       <c r="AO2" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="AP2" s="43" t="s">
+      <c r="AP2" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="AQ2" s="44"/>
+      <c r="AQ2" s="79"/>
       <c r="AR2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AT2" s="79" t="s">
-        <v>228</v>
-      </c>
-      <c r="AU2" s="62" t="s">
+      <c r="AT2" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="62" t="s">
+      <c r="AV2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AW2" s="79" t="s">
+      <c r="AW2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="BB2" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="51"/>
+      <c r="BB2" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="72"/>
       <c r="BE2" s="33" t="s">
         <v>5</v>
       </c>
       <c r="BF2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="51"/>
+      <c r="BG2" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="72"/>
     </row>
     <row r="3" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="31" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="81"/>
       <c r="M3" s="36"/>
       <c r="O3" s="31" t="s">
         <v>1</v>
@@ -2043,50 +2043,50 @@
       <c r="V3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="47" t="s">
+      <c r="X3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="52"/>
+      <c r="Y3" s="75"/>
       <c r="Z3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="54"/>
+      <c r="AA3" s="83"/>
       <c r="AB3" s="31" t="s">
         <v>1</v>
       </c>
       <c r="AC3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="54"/>
+      <c r="AD3" s="83"/>
       <c r="AE3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AF3" s="47" t="s">
+      <c r="AF3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="52"/>
+      <c r="AG3" s="75"/>
       <c r="AJ3" s="35"/>
       <c r="AK3" s="35"/>
-      <c r="AT3" s="80"/>
-      <c r="AU3" s="63" t="s">
+      <c r="AT3" s="77"/>
+      <c r="AU3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AV3" s="63" t="s">
+      <c r="AV3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AW3" s="80"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="48"/>
-      <c r="BD3" s="52"/>
+      <c r="AW3" s="77"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="75"/>
       <c r="BE3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="BF3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="48"/>
-      <c r="BI3" s="52"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="74"/>
+      <c r="BI3" s="75"/>
     </row>
     <row r="4" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="25"/>
@@ -2139,14 +2139,14 @@
       <c r="AN4" s="26">
         <v>75</v>
       </c>
-      <c r="AT4" s="64" t="s">
+      <c r="AT4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="65">
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="53">
         <v>75</v>
       </c>
-      <c r="AW4" s="66" t="s">
+      <c r="AW4" s="54" t="s">
         <v>8</v>
       </c>
       <c r="BB4" s="25"/>
@@ -2187,10 +2187,10 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="M5" s="83" t="s">
-        <v>230</v>
+        <v>256</v>
+      </c>
+      <c r="M5" s="69" t="s">
+        <v>229</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>9</v>
@@ -2250,16 +2250,16 @@
       <c r="AR5" s="26">
         <v>32</v>
       </c>
-      <c r="AT5" s="67" t="s">
+      <c r="AT5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="AU5" s="68">
+      <c r="AU5" s="56">
         <v>74</v>
       </c>
-      <c r="AV5" s="68">
+      <c r="AV5" s="56">
         <v>73</v>
       </c>
-      <c r="AW5" s="69" t="s">
+      <c r="AW5" s="57" t="s">
         <v>157</v>
       </c>
       <c r="BB5" s="1"/>
@@ -2301,7 +2301,7 @@
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
@@ -2359,14 +2359,14 @@
       <c r="AR6" s="24">
         <v>33</v>
       </c>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="65">
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="53">
         <v>72</v>
       </c>
-      <c r="AV6" s="65">
+      <c r="AV6" s="53">
         <v>71</v>
       </c>
-      <c r="AW6" s="69" t="s">
+      <c r="AW6" s="57" t="s">
         <v>159</v>
       </c>
       <c r="BB6" s="25"/>
@@ -2387,8 +2387,8 @@
       <c r="BI6" s="25"/>
     </row>
     <row r="7" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="82" t="s">
-        <v>233</v>
+      <c r="B7" s="68" t="s">
+        <v>232</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2410,7 +2410,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
@@ -2469,14 +2469,14 @@
       <c r="AR7" s="26">
         <v>19</v>
       </c>
-      <c r="AT7" s="70"/>
-      <c r="AU7" s="68">
+      <c r="AT7" s="58"/>
+      <c r="AU7" s="56">
         <v>70</v>
       </c>
-      <c r="AV7" s="68">
+      <c r="AV7" s="56">
         <v>69</v>
       </c>
-      <c r="AW7" s="70"/>
+      <c r="AW7" s="58"/>
       <c r="BB7" s="1"/>
       <c r="BC7" s="20" t="s">
         <v>112</v>
@@ -2497,8 +2497,8 @@
       <c r="BI7" s="1"/>
     </row>
     <row r="8" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="82" t="s">
-        <v>233</v>
+      <c r="B8" s="68" t="s">
+        <v>232</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -2517,11 +2517,11 @@
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="82" t="s">
-        <v>232</v>
+      <c r="L8" s="68" t="s">
+        <v>231</v>
       </c>
       <c r="M8" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
@@ -2579,14 +2579,14 @@
       <c r="AR8" s="24">
         <v>23</v>
       </c>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="65">
+      <c r="AT8" s="52"/>
+      <c r="AU8" s="53">
         <v>68</v>
       </c>
-      <c r="AV8" s="65">
+      <c r="AV8" s="53">
         <v>67</v>
       </c>
-      <c r="AW8" s="64"/>
+      <c r="AW8" s="52"/>
       <c r="BB8" s="25"/>
       <c r="BC8" s="25"/>
       <c r="BD8" s="20" t="s">
@@ -2605,8 +2605,8 @@
       <c r="BI8" s="25"/>
     </row>
     <row r="9" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="82" t="s">
-        <v>233</v>
+      <c r="B9" s="68" t="s">
+        <v>232</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2629,14 +2629,8 @@
       <c r="K9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L9" s="82" t="s">
-        <v>250</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="N9" t="s">
-        <v>252</v>
+      <c r="L9" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2696,14 +2690,14 @@
       <c r="AR9" s="26">
         <v>18</v>
       </c>
-      <c r="AT9" s="70"/>
-      <c r="AU9" s="68">
+      <c r="AT9" s="58"/>
+      <c r="AU9" s="56">
         <v>66</v>
       </c>
-      <c r="AV9" s="68">
+      <c r="AV9" s="56">
         <v>65</v>
       </c>
-      <c r="AW9" s="70"/>
+      <c r="AW9" s="58"/>
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="20" t="s">
@@ -2719,13 +2713,13 @@
         <v>21</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BI9" s="1"/>
     </row>
     <row r="10" spans="1:61" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="82" t="s">
-        <v>233</v>
+      <c r="B10" s="68" t="s">
+        <v>232</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -2750,14 +2744,14 @@
       <c r="K10" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="L10" s="82" t="s">
-        <v>232</v>
+      <c r="L10" s="68" t="s">
+        <v>231</v>
       </c>
       <c r="M10" s="41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
@@ -2825,15 +2819,15 @@
       <c r="AR10" s="24">
         <v>5</v>
       </c>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="65">
+      <c r="AT10" s="52"/>
+      <c r="AU10" s="53">
         <v>64</v>
       </c>
-      <c r="AV10" s="65">
+      <c r="AV10" s="53">
         <v>63</v>
       </c>
-      <c r="AW10" s="69" t="s">
-        <v>225</v>
+      <c r="AW10" s="57" t="s">
+        <v>224</v>
       </c>
       <c r="BB10" s="25"/>
       <c r="BC10" s="20" t="s">
@@ -2852,13 +2846,13 @@
         <v>45</v>
       </c>
       <c r="BH10" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BI10" s="25"/>
     </row>
     <row r="11" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="82" t="s">
-        <v>233</v>
+      <c r="B11" s="68" t="s">
+        <v>232</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2879,8 +2873,8 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="83" t="s">
-        <v>230</v>
+      <c r="L11" s="69" t="s">
+        <v>229</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2956,14 +2950,14 @@
       <c r="AR11" s="26">
         <v>25</v>
       </c>
-      <c r="AT11" s="70"/>
-      <c r="AU11" s="68">
+      <c r="AT11" s="58"/>
+      <c r="AU11" s="56">
         <v>62</v>
       </c>
-      <c r="AV11" s="68">
+      <c r="AV11" s="56">
         <v>61</v>
       </c>
-      <c r="AW11" s="71" t="s">
+      <c r="AW11" s="59" t="s">
         <v>172</v>
       </c>
       <c r="BB11" s="1"/>
@@ -2986,8 +2980,8 @@
       <c r="BI11" s="1"/>
     </row>
     <row r="12" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="82" t="s">
-        <v>233</v>
+      <c r="B12" s="68" t="s">
+        <v>232</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -3010,8 +3004,8 @@
         <v>176</v>
       </c>
       <c r="K12" s="25"/>
-      <c r="L12" s="83" t="s">
-        <v>230</v>
+      <c r="L12" s="69" t="s">
+        <v>229</v>
       </c>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
@@ -3087,14 +3081,14 @@
       <c r="AR12" s="24">
         <v>26</v>
       </c>
-      <c r="AT12" s="64"/>
-      <c r="AU12" s="65">
+      <c r="AT12" s="52"/>
+      <c r="AU12" s="53">
         <v>60</v>
       </c>
-      <c r="AV12" s="65">
+      <c r="AV12" s="53">
         <v>59</v>
       </c>
-      <c r="AW12" s="71" t="s">
+      <c r="AW12" s="59" t="s">
         <v>175</v>
       </c>
       <c r="BB12" s="25"/>
@@ -3118,10 +3112,10 @@
     </row>
     <row r="13" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3142,8 +3136,8 @@
         <v>179</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="83" t="s">
-        <v>230</v>
+      <c r="L13" s="69" t="s">
+        <v>229</v>
       </c>
       <c r="O13" s="1">
         <v>43</v>
@@ -3217,20 +3211,20 @@
       <c r="AR13" s="26">
         <v>39</v>
       </c>
-      <c r="AT13" s="70"/>
-      <c r="AU13" s="68">
+      <c r="AT13" s="58"/>
+      <c r="AU13" s="56">
         <v>58</v>
       </c>
-      <c r="AV13" s="68">
+      <c r="AV13" s="56">
         <v>57</v>
       </c>
-      <c r="AW13" s="71" t="s">
+      <c r="AW13" s="59" t="s">
         <v>178</v>
       </c>
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
       <c r="BD13" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BE13" s="24">
         <v>58</v>
@@ -3246,10 +3240,10 @@
     </row>
     <row r="14" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>180</v>
@@ -3274,8 +3268,8 @@
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="83" t="s">
-        <v>230</v>
+      <c r="L14" s="69" t="s">
+        <v>229</v>
       </c>
       <c r="O14" s="25">
         <v>40</v>
@@ -3349,22 +3343,22 @@
       <c r="AR14" s="24">
         <v>12</v>
       </c>
-      <c r="AT14" s="72" t="s">
+      <c r="AT14" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="AU14" s="65">
+      <c r="AU14" s="53">
         <v>56</v>
       </c>
-      <c r="AV14" s="65">
+      <c r="AV14" s="53">
         <v>55</v>
       </c>
-      <c r="AW14" s="71" t="s">
+      <c r="AW14" s="59" t="s">
         <v>91</v>
       </c>
       <c r="BB14" s="25"/>
       <c r="BC14" s="25"/>
       <c r="BD14" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BE14" s="26">
         <v>56</v>
@@ -3380,10 +3374,10 @@
     </row>
     <row r="15" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>183</v>
@@ -3408,11 +3402,11 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="82" t="s">
-        <v>233</v>
+      <c r="L15" s="68" t="s">
+        <v>232</v>
       </c>
       <c r="M15" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O15" s="1">
         <v>41</v>
@@ -3478,22 +3472,22 @@
       <c r="AP15" s="25"/>
       <c r="AQ15" s="25"/>
       <c r="AR15" s="25"/>
-      <c r="AT15" s="72" t="s">
+      <c r="AT15" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="AU15" s="68">
+      <c r="AU15" s="56">
         <v>54</v>
       </c>
-      <c r="AV15" s="68">
+      <c r="AV15" s="56">
         <v>53</v>
       </c>
-      <c r="AW15" s="73" t="s">
+      <c r="AW15" s="61" t="s">
         <v>186</v>
       </c>
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
       <c r="BD15" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BE15" s="24">
         <v>54</v>
@@ -3509,10 +3503,10 @@
     </row>
     <row r="16" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>245</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>246</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>187</v>
@@ -3537,11 +3531,11 @@
       </c>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
-      <c r="L16" s="82" t="s">
-        <v>233</v>
+      <c r="L16" s="68" t="s">
+        <v>232</v>
       </c>
       <c r="M16" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O16" s="25">
         <v>44</v>
@@ -3607,16 +3601,16 @@
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
-      <c r="AT16" s="72" t="s">
+      <c r="AT16" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="AU16" s="65">
+      <c r="AU16" s="53">
         <v>52</v>
       </c>
-      <c r="AV16" s="65">
+      <c r="AV16" s="53">
         <v>51</v>
       </c>
-      <c r="AW16" s="73" t="s">
+      <c r="AW16" s="61" t="s">
         <v>190</v>
       </c>
       <c r="BB16" s="25"/>
@@ -3638,10 +3632,10 @@
     </row>
     <row r="17" spans="1:61" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>191</v>
@@ -3732,16 +3726,16 @@
       <c r="AP17" s="25"/>
       <c r="AQ17" s="25"/>
       <c r="AR17" s="25"/>
-      <c r="AT17" s="72" t="s">
+      <c r="AT17" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="AU17" s="68">
+      <c r="AU17" s="56">
         <v>50</v>
       </c>
-      <c r="AV17" s="68">
+      <c r="AV17" s="56">
         <v>49</v>
       </c>
-      <c r="AW17" s="67" t="s">
+      <c r="AW17" s="55" t="s">
         <v>194</v>
       </c>
       <c r="BB17" s="1"/>
@@ -3756,14 +3750,14 @@
         <v>49</v>
       </c>
       <c r="BG17" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
     </row>
     <row r="18" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="41" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3783,7 +3777,7 @@
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M18" s="37"/>
       <c r="O18" s="25" t="s">
@@ -3854,16 +3848,16 @@
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
-      <c r="AT18" s="69" t="s">
+      <c r="AT18" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="AU18" s="65">
+      <c r="AU18" s="53">
         <v>48</v>
       </c>
-      <c r="AV18" s="65">
+      <c r="AV18" s="53">
         <v>47</v>
       </c>
-      <c r="AW18" s="74" t="s">
+      <c r="AW18" s="62" t="s">
         <v>39</v>
       </c>
       <c r="BB18" s="25"/>
@@ -3885,7 +3879,7 @@
     </row>
     <row r="19" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3960,16 +3954,16 @@
       <c r="AP19" s="26"/>
       <c r="AQ19" s="25"/>
       <c r="AR19" s="25"/>
-      <c r="AT19" s="69" t="s">
+      <c r="AT19" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="AU19" s="68">
+      <c r="AU19" s="56">
         <v>46</v>
       </c>
-      <c r="AV19" s="68">
+      <c r="AV19" s="56">
         <v>45</v>
       </c>
-      <c r="AW19" s="75" t="s">
+      <c r="AW19" s="63" t="s">
         <v>8</v>
       </c>
       <c r="BB19" s="1"/>
@@ -3991,7 +3985,7 @@
     </row>
     <row r="20" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4010,8 +4004,8 @@
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="82" t="s">
-        <v>232</v>
+      <c r="L20" s="68" t="s">
+        <v>231</v>
       </c>
       <c r="M20" s="37"/>
       <c r="O20" s="25" t="s">
@@ -4070,16 +4064,16 @@
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
-      <c r="AT20" s="69" t="s">
+      <c r="AT20" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="AU20" s="65">
+      <c r="AU20" s="53">
         <v>44</v>
       </c>
-      <c r="AV20" s="65">
+      <c r="AV20" s="53">
         <v>43</v>
       </c>
-      <c r="AW20" s="64" t="s">
+      <c r="AW20" s="52" t="s">
         <v>198</v>
       </c>
       <c r="BB20" s="25"/>
@@ -4094,14 +4088,14 @@
         <v>43</v>
       </c>
       <c r="BG20" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BH20" s="25"/>
       <c r="BI20" s="25"/>
     </row>
     <row r="21" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4120,8 +4114,8 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="82" t="s">
-        <v>232</v>
+      <c r="L21" s="68" t="s">
+        <v>231</v>
       </c>
       <c r="M21" s="38"/>
       <c r="O21" s="1" t="s">
@@ -4184,16 +4178,16 @@
       <c r="AP21" s="25"/>
       <c r="AQ21" s="25"/>
       <c r="AR21" s="25"/>
-      <c r="AT21" s="69" t="s">
+      <c r="AT21" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="AU21" s="68">
+      <c r="AU21" s="56">
         <v>42</v>
       </c>
-      <c r="AV21" s="68">
+      <c r="AV21" s="56">
         <v>41</v>
       </c>
-      <c r="AW21" s="70" t="s">
+      <c r="AW21" s="58" t="s">
         <v>200</v>
       </c>
       <c r="BB21" s="1"/>
@@ -4208,14 +4202,14 @@
         <v>41</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BH21" s="1"/>
       <c r="BI21" s="1"/>
     </row>
     <row r="22" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4294,16 +4288,16 @@
       <c r="AR22" s="24">
         <v>16</v>
       </c>
-      <c r="AT22" s="69" t="s">
+      <c r="AT22" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="AU22" s="65">
+      <c r="AU22" s="53">
         <v>40</v>
       </c>
-      <c r="AV22" s="65">
+      <c r="AV22" s="53">
         <v>39</v>
       </c>
-      <c r="AW22" s="66" t="s">
+      <c r="AW22" s="54" t="s">
         <v>8</v>
       </c>
       <c r="BB22" s="25"/>
@@ -4325,7 +4319,7 @@
     </row>
     <row r="23" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -4412,16 +4406,16 @@
       <c r="AR23" s="26">
         <v>17</v>
       </c>
-      <c r="AT23" s="74" t="s">
+      <c r="AT23" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="AU23" s="68">
+      <c r="AU23" s="56">
         <v>38</v>
       </c>
-      <c r="AV23" s="68">
+      <c r="AV23" s="56">
         <v>37</v>
       </c>
-      <c r="AW23" s="70" t="s">
+      <c r="AW23" s="58" t="s">
         <v>72</v>
       </c>
       <c r="BB23" s="1"/>
@@ -4436,7 +4430,7 @@
         <v>37</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BH23" s="1"/>
       <c r="BI23" s="1"/>
@@ -4511,16 +4505,16 @@
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
-      <c r="AT24" s="66" t="s">
+      <c r="AT24" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AU24" s="65">
+      <c r="AU24" s="53">
         <v>36</v>
       </c>
-      <c r="AV24" s="65">
+      <c r="AV24" s="53">
         <v>35</v>
       </c>
-      <c r="AW24" s="64" t="s">
+      <c r="AW24" s="52" t="s">
         <v>145</v>
       </c>
       <c r="BB24" s="25"/>
@@ -4535,14 +4529,14 @@
         <v>35</v>
       </c>
       <c r="BG24" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BH24" s="25"/>
       <c r="BI24" s="25"/>
     </row>
     <row r="25" spans="1:61" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="82" t="s">
-        <v>232</v>
+      <c r="B25" s="68" t="s">
+        <v>231</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4619,16 +4613,16 @@
       <c r="AP25" s="25"/>
       <c r="AQ25" s="25"/>
       <c r="AR25" s="25"/>
-      <c r="AT25" s="74" t="s">
+      <c r="AT25" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="AU25" s="68">
+      <c r="AU25" s="56">
         <v>34</v>
       </c>
-      <c r="AV25" s="68">
+      <c r="AV25" s="56">
         <v>33</v>
       </c>
-      <c r="AW25" s="75" t="s">
+      <c r="AW25" s="63" t="s">
         <v>8</v>
       </c>
       <c r="BB25" s="1"/>
@@ -4650,7 +4644,7 @@
     </row>
     <row r="26" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="41" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4731,16 +4725,16 @@
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
-      <c r="AT26" s="74" t="s">
+      <c r="AT26" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="AU26" s="65">
+      <c r="AU26" s="53">
         <v>32</v>
       </c>
-      <c r="AV26" s="65">
+      <c r="AV26" s="53">
         <v>31</v>
       </c>
-      <c r="AW26" s="64" t="s">
+      <c r="AW26" s="52" t="s">
         <v>56</v>
       </c>
       <c r="BB26" s="25"/>
@@ -4834,16 +4828,16 @@
       <c r="AP27" s="25"/>
       <c r="AQ27" s="25"/>
       <c r="AR27" s="25"/>
-      <c r="AT27" s="70" t="s">
+      <c r="AT27" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="AU27" s="68">
+      <c r="AU27" s="56">
         <v>30</v>
       </c>
-      <c r="AV27" s="68">
+      <c r="AV27" s="56">
         <v>29</v>
       </c>
-      <c r="AW27" s="70" t="s">
+      <c r="AW27" s="58" t="s">
         <v>56</v>
       </c>
       <c r="BB27" s="1"/>
@@ -4931,16 +4925,16 @@
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
-      <c r="AT28" s="64" t="s">
+      <c r="AT28" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AU28" s="65">
+      <c r="AU28" s="53">
         <v>28</v>
       </c>
-      <c r="AV28" s="65">
+      <c r="AV28" s="53">
         <v>27</v>
       </c>
-      <c r="AW28" s="64" t="s">
+      <c r="AW28" s="52" t="s">
         <v>56</v>
       </c>
       <c r="BB28" s="25"/>
@@ -5032,16 +5026,16 @@
       <c r="AP29" s="25"/>
       <c r="AQ29" s="25"/>
       <c r="AR29" s="25"/>
-      <c r="AT29" s="70" t="s">
+      <c r="AT29" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="AU29" s="68">
+      <c r="AU29" s="56">
         <v>26</v>
       </c>
-      <c r="AV29" s="68">
+      <c r="AV29" s="56">
         <v>25</v>
       </c>
-      <c r="AW29" s="70" t="s">
+      <c r="AW29" s="58" t="s">
         <v>56</v>
       </c>
       <c r="BB29" s="1"/>
@@ -5131,16 +5125,16 @@
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
-      <c r="AT30" s="64" t="s">
+      <c r="AT30" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AU30" s="65">
+      <c r="AU30" s="53">
         <v>24</v>
       </c>
-      <c r="AV30" s="65">
+      <c r="AV30" s="53">
         <v>23</v>
       </c>
-      <c r="AW30" s="64" t="s">
+      <c r="AW30" s="52" t="s">
         <v>57</v>
       </c>
       <c r="BB30" s="25"/>
@@ -5162,7 +5156,7 @@
     </row>
     <row r="31" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5245,14 +5239,14 @@
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
       <c r="AR31" s="29"/>
-      <c r="AT31" s="70"/>
-      <c r="AU31" s="68">
+      <c r="AT31" s="58"/>
+      <c r="AU31" s="56">
         <v>22</v>
       </c>
-      <c r="AV31" s="68">
+      <c r="AV31" s="56">
         <v>21</v>
       </c>
-      <c r="AW31" s="70" t="s">
+      <c r="AW31" s="58" t="s">
         <v>59</v>
       </c>
       <c r="BB31" s="1"/>
@@ -5274,7 +5268,7 @@
     </row>
     <row r="32" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="25"/>
@@ -5293,11 +5287,11 @@
       </c>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="82" t="s">
-        <v>232</v>
+      <c r="L32" s="68" t="s">
+        <v>231</v>
       </c>
       <c r="M32" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O32" s="25">
         <v>37</v>
@@ -5347,14 +5341,14 @@
       </c>
       <c r="AF32" s="25"/>
       <c r="AG32" s="25"/>
-      <c r="AT32" s="64"/>
-      <c r="AU32" s="65">
+      <c r="AT32" s="52"/>
+      <c r="AU32" s="53">
         <v>20</v>
       </c>
-      <c r="AV32" s="65">
+      <c r="AV32" s="53">
         <v>19</v>
       </c>
-      <c r="AW32" s="76" t="s">
+      <c r="AW32" s="64" t="s">
         <v>204</v>
       </c>
       <c r="BB32" s="25"/>
@@ -5376,7 +5370,7 @@
     </row>
     <row r="33" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5397,11 +5391,11 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="82" t="s">
-        <v>232</v>
+      <c r="L33" s="68" t="s">
+        <v>231</v>
       </c>
       <c r="M33" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>62</v>
@@ -5445,16 +5439,16 @@
       </c>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
-      <c r="AT33" s="74" t="s">
+      <c r="AT33" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AU33" s="68">
+      <c r="AU33" s="56">
         <v>18</v>
       </c>
-      <c r="AV33" s="68">
+      <c r="AV33" s="56">
         <v>17</v>
       </c>
-      <c r="AW33" s="76" t="s">
+      <c r="AW33" s="64" t="s">
         <v>205</v>
       </c>
       <c r="BB33" s="1"/>
@@ -5475,8 +5469,8 @@
       <c r="BI33" s="1"/>
     </row>
     <row r="34" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="83" t="s">
-        <v>231</v>
+      <c r="B34" s="69" t="s">
+        <v>230</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -5541,16 +5535,16 @@
         <v>95</v>
       </c>
       <c r="AG34" s="25"/>
-      <c r="AT34" s="73" t="s">
+      <c r="AT34" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="AU34" s="65">
+      <c r="AU34" s="53">
         <v>16</v>
       </c>
-      <c r="AV34" s="65">
+      <c r="AV34" s="53">
         <v>15</v>
       </c>
-      <c r="AW34" s="64"/>
+      <c r="AW34" s="52"/>
       <c r="BB34" s="25"/>
       <c r="BC34" s="25"/>
       <c r="BD34" s="9" t="s">
@@ -5569,8 +5563,8 @@
       <c r="BI34" s="25"/>
     </row>
     <row r="35" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="83" t="s">
-        <v>230</v>
+      <c r="A35" s="69" t="s">
+        <v>229</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>208</v>
@@ -5636,16 +5630,16 @@
         <v>97</v>
       </c>
       <c r="AG35" s="1"/>
-      <c r="AT35" s="73" t="s">
+      <c r="AT35" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="AU35" s="68">
+      <c r="AU35" s="56">
         <v>14</v>
       </c>
-      <c r="AV35" s="68">
+      <c r="AV35" s="56">
         <v>13</v>
       </c>
-      <c r="AW35" s="70"/>
+      <c r="AW35" s="58"/>
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
       <c r="BD35" s="9" t="s">
@@ -5664,8 +5658,8 @@
       <c r="BI35" s="1"/>
     </row>
     <row r="36" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="83" t="s">
-        <v>230</v>
+      <c r="A36" s="69" t="s">
+        <v>229</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>210</v>
@@ -5687,11 +5681,11 @@
       </c>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
-      <c r="L36" s="82" t="s">
+      <c r="L36" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="M36" s="82" t="s">
-        <v>232</v>
+      <c r="M36" s="68" t="s">
+        <v>231</v>
       </c>
       <c r="O36" s="25">
         <v>35</v>
@@ -5731,17 +5725,17 @@
       </c>
       <c r="AF36" s="25"/>
       <c r="AG36" s="25"/>
-      <c r="AT36" s="73" t="s">
+      <c r="AT36" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="AU36" s="65">
+      <c r="AU36" s="53">
         <v>12</v>
       </c>
-      <c r="AV36" s="65">
+      <c r="AV36" s="53">
         <v>11</v>
       </c>
-      <c r="AW36" s="64" t="s">
-        <v>226</v>
+      <c r="AW36" s="52" t="s">
+        <v>225</v>
       </c>
       <c r="BB36" s="25"/>
       <c r="BC36" s="25"/>
@@ -5755,14 +5749,14 @@
         <v>11</v>
       </c>
       <c r="BG36" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BH36" s="25"/>
       <c r="BI36" s="25"/>
     </row>
     <row r="37" spans="1:61" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5823,16 +5817,16 @@
       </c>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
-      <c r="AT37" s="74" t="s">
+      <c r="AT37" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="AU37" s="68">
+      <c r="AU37" s="56">
         <v>10</v>
       </c>
-      <c r="AV37" s="68">
+      <c r="AV37" s="56">
         <v>9</v>
       </c>
-      <c r="AW37" s="70"/>
+      <c r="AW37" s="58"/>
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
       <c r="BD37" s="11" t="s">
@@ -5911,16 +5905,16 @@
       </c>
       <c r="AF38" s="25"/>
       <c r="AG38" s="25"/>
-      <c r="AT38" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="AU38" s="65">
+      <c r="AT38" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU38" s="53">
         <v>8</v>
       </c>
-      <c r="AV38" s="65">
+      <c r="AV38" s="53">
         <v>7</v>
       </c>
-      <c r="AW38" s="66" t="s">
+      <c r="AW38" s="54" t="s">
         <v>8</v>
       </c>
       <c r="BB38" s="25"/>
@@ -5939,10 +5933,10 @@
       <c r="BI38" s="25"/>
     </row>
     <row r="39" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="82" t="s">
-        <v>232</v>
-      </c>
-      <c r="B39" s="82" t="s">
+      <c r="A39" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39" s="68" t="s">
         <v>213</v>
       </c>
       <c r="C39" s="1"/>
@@ -5965,8 +5959,8 @@
       <c r="L39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M39" s="82" t="s">
-        <v>234</v>
+      <c r="M39" s="68" t="s">
+        <v>233</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -6006,16 +6000,16 @@
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
-      <c r="AT39" s="70" t="s">
+      <c r="AT39" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="AU39" s="68">
+      <c r="AU39" s="56">
         <v>6</v>
       </c>
-      <c r="AV39" s="68">
+      <c r="AV39" s="56">
         <v>5</v>
       </c>
-      <c r="AW39" s="70" t="s">
+      <c r="AW39" s="58" t="s">
         <v>71</v>
       </c>
       <c r="BB39" s="1"/>
@@ -6059,8 +6053,8 @@
       <c r="L40" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M40" s="82" t="s">
-        <v>234</v>
+      <c r="M40" s="68" t="s">
+        <v>233</v>
       </c>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
@@ -6100,14 +6094,14 @@
       </c>
       <c r="AF40" s="25"/>
       <c r="AG40" s="25"/>
-      <c r="AT40" s="64"/>
-      <c r="AU40" s="65">
+      <c r="AT40" s="52"/>
+      <c r="AU40" s="53">
         <v>4</v>
       </c>
-      <c r="AV40" s="65">
+      <c r="AV40" s="53">
         <v>3</v>
       </c>
-      <c r="AW40" s="64" t="s">
+      <c r="AW40" s="52" t="s">
         <v>74</v>
       </c>
       <c r="BB40" s="25"/>
@@ -6184,16 +6178,16 @@
       </c>
       <c r="AF41" s="32"/>
       <c r="AG41" s="29"/>
-      <c r="AT41" s="67" t="s">
+      <c r="AT41" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="AU41" s="77">
+      <c r="AU41" s="65">
         <v>2</v>
       </c>
-      <c r="AV41" s="77">
+      <c r="AV41" s="65">
         <v>1</v>
       </c>
-      <c r="AW41" s="78" t="s">
+      <c r="AW41" s="66" t="s">
         <v>8</v>
       </c>
       <c r="BB41" s="2"/>

--- a/ZumoPi_V02/MCU/Pinout.xlsx
+++ b/ZumoPi_V02/MCU/Pinout.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="257">
   <si>
     <t>SAMD51</t>
   </si>
@@ -830,15 +830,9 @@
     <t>BNO_RX</t>
   </si>
   <si>
-    <t>add jp</t>
-  </si>
-  <si>
     <t>BNO_!RST!</t>
   </si>
   <si>
-    <t>BNO_!WAKE!</t>
-  </si>
-  <si>
     <t>BNO_!INT!</t>
   </si>
   <si>
@@ -848,28 +842,31 @@
     <t>Pi_!INT! 2</t>
   </si>
   <si>
-    <t>JP1</t>
-  </si>
-  <si>
     <t>VL0_CE</t>
   </si>
   <si>
     <t>VL1_CE</t>
   </si>
   <si>
-    <t>M0,M1 Enable</t>
-  </si>
-  <si>
     <t>M0 PWM</t>
   </si>
   <si>
     <t>M0 Phase</t>
   </si>
   <si>
-    <t>3V3P_EN</t>
-  </si>
-  <si>
     <t>Vin Stat</t>
+  </si>
+  <si>
+    <t>P_EN</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>BNO_!BOOT!</t>
+  </si>
+  <si>
+    <t>jp</t>
   </si>
 </sst>
 </file>
@@ -1730,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2187,7 +2184,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="41" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="M5" s="69" t="s">
         <v>229</v>
@@ -2301,7 +2298,7 @@
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="41" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
@@ -2521,7 +2518,10 @@
         <v>231</v>
       </c>
       <c r="M8" s="41" t="s">
-        <v>248</v>
+        <v>246</v>
+      </c>
+      <c r="N8" t="s">
+        <v>254</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
@@ -2629,8 +2629,14 @@
       <c r="K9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L9" s="41" t="s">
-        <v>257</v>
+      <c r="L9" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="N9" t="s">
+        <v>254</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2748,10 +2754,10 @@
         <v>231</v>
       </c>
       <c r="M10" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N10" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
@@ -3112,10 +3118,10 @@
     </row>
     <row r="13" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3240,10 +3246,10 @@
     </row>
     <row r="14" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>180</v>
@@ -3374,10 +3380,10 @@
     </row>
     <row r="15" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>183</v>
@@ -3503,10 +3509,10 @@
     </row>
     <row r="16" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>244</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>245</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>187</v>
@@ -3632,10 +3638,10 @@
     </row>
     <row r="17" spans="1:61" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>191</v>
@@ -4644,7 +4650,7 @@
     </row>
     <row r="26" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="41" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -5756,7 +5762,7 @@
     </row>
     <row r="37" spans="1:61" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="41" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>

--- a/ZumoPi_V02/MCU/Pinout.xlsx
+++ b/ZumoPi_V02/MCU/Pinout.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ESP32_Option" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="277">
   <si>
     <t>SAMD51</t>
   </si>
@@ -868,12 +869,208 @@
   <si>
     <t>jp</t>
   </si>
+  <si>
+    <t>Dedicated Pins</t>
+  </si>
+  <si>
+    <t>A0 - GPIO pin 34, pad 34 on the MicroMod (Input Only!)</t>
+  </si>
+  <si>
+    <t>A1 - GPIO pin 35, pad 38 on the MicroMod (Input Only!)</t>
+  </si>
+  <si>
+    <t>D0 - GPIO pin 14, pad 10 on the MicroMod</t>
+  </si>
+  <si>
+    <t>D1 - GPIO pin 27, pad 18 on the MicroMod</t>
+  </si>
+  <si>
+    <t>PWM0 - GPIO pin 13, pad 32 on the MicroMod</t>
+  </si>
+  <si>
+    <t>PWM1 - GPIO pin 12, pad 47 on the MicroMod</t>
+  </si>
+  <si>
+    <t>General Purpose IO pins</t>
+  </si>
+  <si>
+    <t>G0 - GPIO pin 15, pad 40 on the MicroMod</t>
+  </si>
+  <si>
+    <r>
+      <t>G1 - GPIO pin 25, pad 42 on the MicroMod - Shared with the I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S bus, and secondary I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C bus.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G2 - GPIO pin 26, pad 44 on the MicroMod - Shared with the I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S bus, and secondary I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C bus.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G3 - GPIO pin 17, pad 46 on the MicroMod - Shared with the I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S bus, and secondary UART.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G4 - GPIO pin 16, pad 48 on the MicroMod - Shared with the I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S bus, and secondary UART.</t>
+    </r>
+  </si>
+  <si>
+    <t>G5 - GPIO pin 32, pad 73 on the MicroMod - Shared with the 32KHz RTC crystal.</t>
+  </si>
+  <si>
+    <t>G6 - GPIO pin 33, pad 71 on the MicroMod - Shared with the 32KHz RTC crystal.</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C Interrupt</t>
+    </r>
+  </si>
+  <si>
+    <t>https://learn.sparkfun.com/tutorials/micromod-esp32-processor-board-hookup-guide/all</t>
+  </si>
+  <si>
+    <t>Header Pi</t>
+  </si>
+  <si>
+    <t>USB_D- MUX</t>
+  </si>
+  <si>
+    <t>USB_D+ MUX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -961,8 +1158,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1044,6 +1253,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1444,6 +1665,43 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1727,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3763,7 +4021,7 @@
     </row>
     <row r="18" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="41" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3885,7 +4143,7 @@
     </row>
     <row r="19" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="41" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3991,7 +4249,7 @@
     </row>
     <row r="20" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4101,7 +4359,7 @@
     </row>
     <row r="21" spans="1:61" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4215,9 +4473,8 @@
     </row>
     <row r="22" spans="1:61" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="25"/>
+        <v>253</v>
+      </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="6" t="s">
@@ -6234,4 +6491,825 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+    </row>
+    <row r="2" spans="1:18" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="67" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87">
+        <v>73</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="87">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>71</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87">
+        <v>61</v>
+      </c>
+      <c r="G5" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="86"/>
+      <c r="I5" s="87">
+        <v>19</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>59</v>
+      </c>
+      <c r="G6" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="5">
+        <v>23</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87">
+        <v>57</v>
+      </c>
+      <c r="G7" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87">
+        <v>18</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="5">
+        <v>56</v>
+      </c>
+      <c r="F8" s="5">
+        <v>55</v>
+      </c>
+      <c r="G8" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="5">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87">
+        <v>50</v>
+      </c>
+      <c r="F9" s="87">
+        <v>49</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87">
+        <v>39</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="5">
+        <v>16</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5">
+        <v>48</v>
+      </c>
+      <c r="F10" s="5">
+        <v>47</v>
+      </c>
+      <c r="G10" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="5">
+        <v>12</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="87">
+        <v>17</v>
+      </c>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="87">
+        <v>46</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="5">
+        <v>26</v>
+      </c>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="87">
+        <v>25</v>
+      </c>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="87">
+        <v>42</v>
+      </c>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="5">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5">
+        <v>39</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="87">
+        <v>35</v>
+      </c>
+      <c r="C15" s="86"/>
+      <c r="D15" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="87">
+        <v>38</v>
+      </c>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="86"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="5">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5">
+        <v>34</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="87">
+        <v>13</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="D17" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="87">
+        <v>32</v>
+      </c>
+      <c r="F17" s="87">
+        <v>33</v>
+      </c>
+      <c r="G17" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="87">
+        <v>27</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="87">
+        <v>18</v>
+      </c>
+      <c r="F18" s="87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="91" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="5">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="91" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="5">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="87">
+        <v>22</v>
+      </c>
+      <c r="C20" s="86"/>
+      <c r="D20" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="87">
+        <v>14</v>
+      </c>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="5">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="5">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5">
+        <v>11</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" s="87">
+        <v>14</v>
+      </c>
+      <c r="C22" s="86"/>
+      <c r="D22" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="87">
+        <v>10</v>
+      </c>
+      <c r="F22" s="87">
+        <v>9</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5">
+        <v>7</v>
+      </c>
+      <c r="G23" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="87">
+        <v>6</v>
+      </c>
+      <c r="F24" s="87">
+        <v>5</v>
+      </c>
+      <c r="G24" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="5">
+        <v>3</v>
+      </c>
+      <c r="G25" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="87">
+        <v>2</v>
+      </c>
+      <c r="F26" s="87">
+        <v>1</v>
+      </c>
+      <c r="G26" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="86"/>
+      <c r="I26" s="93"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A32:K32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>